--- a/trabajo individual 1.xlsx
+++ b/trabajo individual 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\universidad\base de datos avanzadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B408570-5878-43CA-B019-1F11232CF75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8943605F-6793-43CC-B33C-6E764790DA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5544" yWindow="2658" windowWidth="17280" windowHeight="8994" xr2:uid="{C6993E81-9C63-4911-B6DF-0D844E06548E}"/>
+    <workbookView xWindow="10872" yWindow="1620" windowWidth="17280" windowHeight="8994" xr2:uid="{C6993E81-9C63-4911-B6DF-0D844E06548E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,47 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Antse Cáceres</t>
   </si>
   <si>
-    <t>Espacio tablas proyectadas a 5 años</t>
-  </si>
-  <si>
-    <t>Relaciones</t>
-  </si>
-  <si>
-    <t>Tamaño</t>
-  </si>
-  <si>
-    <t>Carga inicial</t>
-  </si>
-  <si>
-    <t>Carga diaria</t>
-  </si>
-  <si>
-    <t>Proyeccion a 5 años</t>
-  </si>
-  <si>
-    <t>Total a 5 años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registros </t>
-  </si>
-  <si>
-    <t>Bytes</t>
-  </si>
-  <si>
-    <t>Registros</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejemplar </t>
-  </si>
-  <si>
     <t>Pelicula</t>
   </si>
   <si>
@@ -87,13 +51,61 @@
   </si>
   <si>
     <t>Ejemplar_socio</t>
+  </si>
+  <si>
+    <t>Matriz cruzada transaciones/relaciones</t>
+  </si>
+  <si>
+    <t>Transacciones</t>
+  </si>
+  <si>
+    <t>Tablas</t>
+  </si>
+  <si>
+    <t>Tabla por transaccion</t>
+  </si>
+  <si>
+    <t>Ejemplar</t>
+  </si>
+  <si>
+    <t>Administrar Clientes</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Administrar Videos</t>
+  </si>
+  <si>
+    <t>Registrar alquiler de video</t>
+  </si>
+  <si>
+    <t>Registrar devolución de video</t>
+  </si>
+  <si>
+    <t>Reporte de alquiler de videos por cada mes, ordenados por fecha de alquiler</t>
+  </si>
+  <si>
+    <t>Listar información de videos disponibles incluido el género</t>
+  </si>
+  <si>
+    <t>Transacciones por tablas</t>
+  </si>
+  <si>
+    <t>actor_pelicula</t>
+  </si>
+  <si>
+    <t>Propuesta</t>
+  </si>
+  <si>
+    <t>Según la matriz cruzada en la transaccion de tablas dentro del raid de 16 discos, el flujo de tablas de transacciones con mayor actividad son ejemplar_socio y ejemplar, considero que se deberia de usar dos discos del raid en cada una, debido al flujo abundante de datos de transacciones que se estan ejecutando, en el caso de las demas tablas es valido el uso de uno, ya que el flujo se mantiene bajo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +120,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,79 +160,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -207,24 +177,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFAA8E9-F769-4BAB-8614-47E326DDFC5C}">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -553,7 +528,7 @@
     <col min="4" max="4" width="16.62890625" customWidth="1"/>
     <col min="5" max="5" width="19.5234375" customWidth="1"/>
     <col min="6" max="6" width="14.47265625" customWidth="1"/>
-    <col min="7" max="7" width="11.89453125" customWidth="1"/>
+    <col min="7" max="7" width="14.734375" customWidth="1"/>
     <col min="8" max="8" width="12.9453125" customWidth="1"/>
     <col min="9" max="9" width="13.89453125" customWidth="1"/>
   </cols>
@@ -572,248 +547,285 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>654</v>
-      </c>
-      <c r="C6" s="2">
-        <v>452</v>
-      </c>
-      <c r="D6" s="2">
-        <v>295608</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>58000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>37932000</v>
-      </c>
-      <c r="H6" s="2">
-        <v>13200</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.32E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6515</v>
-      </c>
-      <c r="C7" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>781800000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>58635000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>157</v>
-      </c>
-      <c r="C8" s="2">
-        <v>85200</v>
-      </c>
-      <c r="D8" s="2">
-        <v>13376400</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8.52</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4152</v>
-      </c>
-      <c r="G8" s="2">
-        <v>651864</v>
-      </c>
-      <c r="H8" s="2">
-        <v>15222</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1.5221999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1566</v>
-      </c>
-      <c r="C9" s="2">
-        <v>55800</v>
-      </c>
-      <c r="D9" s="2">
-        <v>87382800</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5.58</v>
-      </c>
-      <c r="F9" s="2">
-        <v>153000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>239598000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>153310</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.15331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D10" s="2">
-        <v>240000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>80000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>65000</v>
-      </c>
-      <c r="I10" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6984</v>
-      </c>
-      <c r="C11" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>104760000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>58900</v>
-      </c>
-      <c r="G11" s="2">
-        <v>411357600</v>
-      </c>
-      <c r="H11" s="2">
-        <v>156600</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.15659999999999999</v>
-      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A15:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
